--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaok\Desktop\ISEC\2Ano\IIA\TP2IIA\isec-iia-optimization-methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36683A1F-4F7D-49FD-8879-B9B49BED0B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D4472D-FC64-4C41-BC8B-F7E14CADE995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2895" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="225" windowWidth="16275" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trepa Colinas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="233">
   <si>
     <t>Trepa-Colinas com Vizinhança 2</t>
   </si>
@@ -731,6 +731,11 @@
   <si>
     <t>Teste 6: file5.txt
  G=(500, 4459)</t>
+  </si>
+  <si>
+    <t>ger = 2500
+pop = 100
+pm = 0.01</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1086,12 +1091,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1148,23 +1147,16 @@
     <xf numFmtId="2" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1172,7 +1164,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1182,23 +1190,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1206,25 +1211,40 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1473,18 +1493,18 @@
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
@@ -1506,12 +1526,12 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1529,14 +1549,14 @@
       <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="64">
         <v>5</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1552,12 +1572,12 @@
       <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>227</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1575,14 +1595,14 @@
       <c r="G6" s="6">
         <v>20</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="64">
         <v>21</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="59"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1598,13 +1618,13 @@
       <c r="G7" s="7">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>226</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1622,14 +1642,14 @@
       <c r="G8" s="6">
         <v>15</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="64">
         <v>16</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1645,12 +1665,12 @@
       <c r="G9" s="7">
         <v>15</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1668,14 +1688,14 @@
       <c r="G10" s="6">
         <v>112</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="64">
         <v>112</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,12 +1711,12 @@
       <c r="G11" s="7">
         <v>112</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="62" t="s">
         <v>229</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1714,14 +1734,14 @@
       <c r="G12" s="6">
         <v>79</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="64">
         <v>79</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1737,12 +1757,12 @@
       <c r="G13" s="7">
         <v>79</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>231</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1760,14 +1780,14 @@
       <c r="G14" s="6">
         <v>93</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="64">
         <v>98</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="59"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1783,32 +1803,32 @@
       <c r="G15" s="7">
         <v>91.6</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="60"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="59"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1">
       <c r="A18" s="9"/>
@@ -1823,22 +1843,22 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="J19" s="52"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="55"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
@@ -1860,12 +1880,12 @@
       <c r="G21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1883,14 +1903,14 @@
       <c r="G22" s="6">
         <v>5</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="64">
         <v>5</v>
       </c>
-      <c r="I22" s="55"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="59"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
@@ -1906,13 +1926,13 @@
       <c r="G23" s="7">
         <v>5</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="L23" s="51"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1930,14 +1950,14 @@
       <c r="G24" s="6">
         <v>20</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="64">
         <v>21</v>
       </c>
-      <c r="I24" s="55"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="59"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
@@ -1953,18 +1973,18 @@
       <c r="G25" s="7">
         <v>20</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="62" t="s">
         <v>226</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="52">
         <v>15</v>
       </c>
       <c r="E26" s="6">
@@ -1976,35 +1996,35 @@
       <c r="G26" s="6">
         <v>15</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="64">
         <v>16</v>
       </c>
-      <c r="I26" s="55"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="59"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="53">
-        <v>15</v>
-      </c>
-      <c r="E27" s="53">
-        <v>15</v>
-      </c>
-      <c r="F27" s="53">
-        <v>15</v>
-      </c>
-      <c r="G27" s="53">
-        <v>15</v>
-      </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
+      <c r="D27" s="51">
+        <v>15</v>
+      </c>
+      <c r="E27" s="51">
+        <v>15</v>
+      </c>
+      <c r="F27" s="51">
+        <v>15</v>
+      </c>
+      <c r="G27" s="51">
+        <v>15</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2022,15 +2042,15 @@
       <c r="G28" s="6">
         <v>112</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="64">
         <v>112</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="51"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2046,12 +2066,12 @@
       <c r="G29" s="7">
         <v>112</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="62" t="s">
         <v>229</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2069,14 +2089,14 @@
       <c r="G30" s="6">
         <v>79</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="64">
         <v>79</v>
       </c>
-      <c r="I30" s="55"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="59"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="5" t="s">
         <v>9</v>
       </c>
@@ -2092,12 +2112,12 @@
       <c r="G31" s="7">
         <v>79</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="65" t="s">
         <v>231</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2115,15 +2135,15 @@
       <c r="G32" s="6">
         <v>98</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="64">
         <v>98</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="51"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="59"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
@@ -2139,39 +2159,39 @@
       <c r="G33" s="7">
         <v>98</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="60"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="59"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="8"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="J36" s="51"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="39" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
-      <c r="J40" s="52"/>
+      <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="42" spans="1:10" ht="12.75" customHeight="1"/>
@@ -3073,26 +3093,6 @@
     <row r="938" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
     <mergeCell ref="H32:I33"/>
     <mergeCell ref="H34:I35"/>
     <mergeCell ref="B32:B33"/>
@@ -3105,6 +3105,26 @@
     <mergeCell ref="H26:I27"/>
     <mergeCell ref="H28:I29"/>
     <mergeCell ref="H30:I31"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3118,8 +3138,8 @@
   </sheetPr>
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -3150,32 +3170,32 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="I1" s="85"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="11"/>
@@ -3224,12 +3244,24 @@
       <c r="E4" s="21">
         <v>20</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="F4" s="22">
+        <v>20</v>
+      </c>
+      <c r="G4" s="89">
+        <v>20</v>
+      </c>
+      <c r="H4" s="24">
+        <v>20</v>
+      </c>
+      <c r="I4" s="84">
+        <v>20</v>
+      </c>
+      <c r="J4" s="26">
+        <v>20</v>
+      </c>
+      <c r="K4" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="17"/>
@@ -3245,12 +3277,24 @@
       <c r="E5" s="21">
         <v>20</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="F5" s="22">
+        <v>20</v>
+      </c>
+      <c r="G5" s="89">
+        <v>20</v>
+      </c>
+      <c r="H5" s="24">
+        <v>20</v>
+      </c>
+      <c r="I5" s="84">
+        <v>20</v>
+      </c>
+      <c r="J5" s="26">
+        <v>20</v>
+      </c>
+      <c r="K5" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="17"/>
@@ -3266,16 +3310,28 @@
       <c r="E6" s="21">
         <v>20</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="F6" s="22">
+        <v>20</v>
+      </c>
+      <c r="G6" s="89">
+        <v>20</v>
+      </c>
+      <c r="H6" s="24">
+        <v>20</v>
+      </c>
+      <c r="I6" s="84">
+        <v>20</v>
+      </c>
+      <c r="J6" s="26">
+        <v>20</v>
+      </c>
+      <c r="K6" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3287,16 +3343,28 @@
       <c r="E7" s="21">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="F7" s="22">
+        <v>20</v>
+      </c>
+      <c r="G7" s="89">
+        <v>20</v>
+      </c>
+      <c r="H7" s="24">
+        <v>20</v>
+      </c>
+      <c r="I7" s="84">
+        <v>20</v>
+      </c>
+      <c r="J7" s="26">
+        <v>20</v>
+      </c>
+      <c r="K7" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="19" t="s">
         <v>38</v>
       </c>
@@ -3306,16 +3374,28 @@
       <c r="E8" s="21">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="F8" s="22">
+        <v>20</v>
+      </c>
+      <c r="G8" s="89">
+        <v>20</v>
+      </c>
+      <c r="H8" s="24">
+        <v>20</v>
+      </c>
+      <c r="I8" s="84">
+        <v>20</v>
+      </c>
+      <c r="J8" s="26">
+        <v>20</v>
+      </c>
+      <c r="K8" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
@@ -3325,16 +3405,28 @@
       <c r="E9" s="21">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="F9" s="22">
+        <v>20</v>
+      </c>
+      <c r="G9" s="89">
+        <v>20</v>
+      </c>
+      <c r="H9" s="24">
+        <v>20</v>
+      </c>
+      <c r="I9" s="84">
+        <v>20</v>
+      </c>
+      <c r="J9" s="26">
+        <v>20</v>
+      </c>
+      <c r="K9" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="68"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="17" t="s">
         <v>40</v>
       </c>
@@ -3344,16 +3436,28 @@
       <c r="E10" s="21">
         <v>20</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="F10" s="22">
+        <v>20</v>
+      </c>
+      <c r="G10" s="89">
+        <v>20</v>
+      </c>
+      <c r="H10" s="24">
+        <v>20</v>
+      </c>
+      <c r="I10" s="84">
+        <v>20</v>
+      </c>
+      <c r="J10" s="26">
+        <v>20</v>
+      </c>
+      <c r="K10" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="72" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3365,16 +3469,28 @@
       <c r="E11" s="21">
         <v>20</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="F11" s="22">
+        <v>20</v>
+      </c>
+      <c r="G11" s="89">
+        <v>20</v>
+      </c>
+      <c r="H11" s="24">
+        <v>20</v>
+      </c>
+      <c r="I11" s="84">
+        <v>20</v>
+      </c>
+      <c r="J11" s="26">
+        <v>20</v>
+      </c>
+      <c r="K11" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="19" t="s">
         <v>50</v>
       </c>
@@ -3384,16 +3500,28 @@
       <c r="E12" s="21">
         <v>20</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="F12" s="22">
+        <v>20</v>
+      </c>
+      <c r="G12" s="89">
+        <v>20</v>
+      </c>
+      <c r="H12" s="24">
+        <v>20</v>
+      </c>
+      <c r="I12" s="84">
+        <v>20</v>
+      </c>
+      <c r="J12" s="26">
+        <v>20</v>
+      </c>
+      <c r="K12" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="19" t="s">
         <v>52</v>
       </c>
@@ -3403,12 +3531,24 @@
       <c r="E13" s="21">
         <v>20</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="F13" s="22">
+        <v>20</v>
+      </c>
+      <c r="G13" s="89">
+        <v>20</v>
+      </c>
+      <c r="H13" s="24">
+        <v>20</v>
+      </c>
+      <c r="I13" s="84">
+        <v>20</v>
+      </c>
+      <c r="J13" s="26">
+        <v>20</v>
+      </c>
+      <c r="K13" s="26">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="29"/>
@@ -3425,26 +3565,26 @@
     </row>
     <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="64"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="64"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="11"/>
@@ -3481,69 +3621,117 @@
     </row>
     <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="30"/>
-      <c r="B17" s="69" t="s">
-        <v>33</v>
+      <c r="B17" s="71" t="s">
+        <v>232</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="F17" s="22">
+        <v>15</v>
+      </c>
+      <c r="G17" s="89">
+        <v>15</v>
+      </c>
+      <c r="H17" s="24">
+        <v>15</v>
+      </c>
+      <c r="I17" s="84">
+        <v>15</v>
+      </c>
+      <c r="J17" s="26">
+        <v>15</v>
+      </c>
+      <c r="K17" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="F18" s="22">
+        <v>15</v>
+      </c>
+      <c r="G18" s="89">
+        <v>15</v>
+      </c>
+      <c r="H18" s="24">
+        <v>15</v>
+      </c>
+      <c r="I18" s="84">
+        <v>15</v>
+      </c>
+      <c r="J18" s="26">
+        <v>15</v>
+      </c>
+      <c r="K18" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="14.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="F19" s="22">
+        <v>15</v>
+      </c>
+      <c r="G19" s="89">
+        <v>15</v>
+      </c>
+      <c r="H19" s="24">
+        <v>15</v>
+      </c>
+      <c r="I19" s="84">
+        <v>15</v>
+      </c>
+      <c r="J19" s="26">
+        <v>15</v>
+      </c>
+      <c r="K19" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="14.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="68"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="F20" s="22">
+        <v>15</v>
+      </c>
+      <c r="G20" s="89">
+        <v>15</v>
+      </c>
+      <c r="H20" s="24">
+        <v>15</v>
+      </c>
+      <c r="I20" s="84">
+        <v>15</v>
+      </c>
+      <c r="J20" s="26">
+        <v>15</v>
+      </c>
+      <c r="K20" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="14.25">
       <c r="A21" s="31"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -3551,46 +3739,82 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="F21" s="22">
+        <v>15</v>
+      </c>
+      <c r="G21" s="89">
+        <v>15</v>
+      </c>
+      <c r="H21" s="24">
+        <v>15</v>
+      </c>
+      <c r="I21" s="84">
+        <v>15</v>
+      </c>
+      <c r="J21" s="26">
+        <v>15</v>
+      </c>
+      <c r="K21" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="14.25">
       <c r="A22" s="31"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="F22" s="22">
+        <v>15</v>
+      </c>
+      <c r="G22" s="89">
+        <v>15</v>
+      </c>
+      <c r="H22" s="24">
+        <v>15</v>
+      </c>
+      <c r="I22" s="84">
+        <v>15</v>
+      </c>
+      <c r="J22" s="26">
+        <v>15</v>
+      </c>
+      <c r="K22" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="14.25">
       <c r="A23" s="31"/>
-      <c r="B23" s="59"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="F23" s="22">
+        <v>15</v>
+      </c>
+      <c r="G23" s="89">
+        <v>15</v>
+      </c>
+      <c r="H23" s="24">
+        <v>15</v>
+      </c>
+      <c r="I23" s="84">
+        <v>15</v>
+      </c>
+      <c r="J23" s="26">
+        <v>15</v>
+      </c>
+      <c r="K23" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="14.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -3598,42 +3822,78 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="F24" s="22">
+        <v>15</v>
+      </c>
+      <c r="G24" s="89">
+        <v>15</v>
+      </c>
+      <c r="H24" s="24">
+        <v>15</v>
+      </c>
+      <c r="I24" s="84">
+        <v>15</v>
+      </c>
+      <c r="J24" s="26">
+        <v>15</v>
+      </c>
+      <c r="K24" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="68"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="F25" s="22">
+        <v>15</v>
+      </c>
+      <c r="G25" s="89">
+        <v>15</v>
+      </c>
+      <c r="H25" s="24">
+        <v>15</v>
+      </c>
+      <c r="I25" s="84">
+        <v>15</v>
+      </c>
+      <c r="J25" s="26">
+        <v>15</v>
+      </c>
+      <c r="K25" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="59"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="F26" s="22">
+        <v>15</v>
+      </c>
+      <c r="G26" s="89">
+        <v>15</v>
+      </c>
+      <c r="H26" s="24">
+        <v>15</v>
+      </c>
+      <c r="I26" s="84">
+        <v>15</v>
+      </c>
+      <c r="J26" s="26">
+        <v>15</v>
+      </c>
+      <c r="K26" s="83">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="29"/>
@@ -3650,26 +3910,26 @@
     </row>
     <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="74" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="75" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="64"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="64"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="14.25">
       <c r="A29" s="11"/>
@@ -3714,15 +3974,23 @@
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="34">
+      <c r="F30" s="22">
         <v>112</v>
       </c>
-      <c r="K30" s="34">
+      <c r="G30" s="89">
         <v>112</v>
+      </c>
+      <c r="H30" s="24">
+        <v>112</v>
+      </c>
+      <c r="I30" s="25">
+        <v>109.919</v>
+      </c>
+      <c r="J30" s="32">
+        <v>112</v>
+      </c>
+      <c r="K30" s="32">
+        <v>110.25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25">
@@ -3735,15 +4003,23 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="34">
+      <c r="F31" s="22">
         <v>112</v>
       </c>
-      <c r="K31" s="34">
+      <c r="G31" s="89">
         <v>112</v>
+      </c>
+      <c r="H31" s="24">
+        <v>112</v>
+      </c>
+      <c r="I31" s="25">
+        <v>110.54</v>
+      </c>
+      <c r="J31" s="32">
+        <v>112</v>
+      </c>
+      <c r="K31" s="32">
+        <v>110.76900000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25">
@@ -3756,20 +4032,28 @@
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="34">
+      <c r="F32" s="22">
         <v>112</v>
       </c>
-      <c r="K32" s="34">
+      <c r="G32" s="89">
         <v>112</v>
+      </c>
+      <c r="H32" s="24">
+        <v>112</v>
+      </c>
+      <c r="I32" s="25">
+        <v>110.73</v>
+      </c>
+      <c r="J32" s="32">
+        <v>112</v>
+      </c>
+      <c r="K32" s="32">
+        <v>111.199</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25">
       <c r="A33" s="30"/>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -3777,77 +4061,109 @@
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="34">
+      <c r="F33" s="22">
         <v>112</v>
       </c>
-      <c r="K33" s="83">
-        <v>111</v>
+      <c r="G33" s="23">
+        <v>108.529</v>
+      </c>
+      <c r="H33" s="24">
+        <v>112</v>
+      </c>
+      <c r="I33" s="25">
+        <v>108.68</v>
+      </c>
+      <c r="J33" s="32">
+        <v>112</v>
+      </c>
+      <c r="K33" s="53">
+        <v>110.129</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25">
       <c r="A34" s="30"/>
-      <c r="B34" s="68"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="34">
+      <c r="F34" s="22">
         <v>112</v>
       </c>
-      <c r="K34" s="83">
-        <v>111</v>
+      <c r="G34" s="23">
+        <v>111.94</v>
+      </c>
+      <c r="H34" s="24">
+        <v>112</v>
+      </c>
+      <c r="I34" s="25">
+        <v>109.239</v>
+      </c>
+      <c r="J34" s="32">
+        <v>112</v>
+      </c>
+      <c r="K34" s="53">
+        <v>110.449</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25">
       <c r="A35" s="30"/>
-      <c r="B35" s="68"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="34">
+      <c r="F35" s="22">
         <v>112</v>
       </c>
-      <c r="K35" s="34">
+      <c r="G35" s="89">
         <v>112</v>
+      </c>
+      <c r="H35" s="24">
+        <v>112</v>
+      </c>
+      <c r="I35" s="25">
+        <v>111.15</v>
+      </c>
+      <c r="J35" s="32">
+        <v>112</v>
+      </c>
+      <c r="K35" s="32">
+        <v>110.93</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="68"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="34">
+      <c r="F36" s="22">
         <v>112</v>
       </c>
-      <c r="K36" s="34">
+      <c r="G36" s="89">
         <v>112</v>
+      </c>
+      <c r="H36" s="24">
+        <v>112</v>
+      </c>
+      <c r="I36" s="25">
+        <v>111.199</v>
+      </c>
+      <c r="J36" s="32">
+        <v>112</v>
+      </c>
+      <c r="K36" s="32">
+        <v>111.37</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25">
       <c r="A37" s="31"/>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -3855,53 +4171,77 @@
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="34">
+      <c r="F37" s="22">
         <v>112</v>
       </c>
-      <c r="K37" s="34">
+      <c r="G37" s="23">
+        <v>107.26</v>
+      </c>
+      <c r="H37" s="24">
         <v>112</v>
+      </c>
+      <c r="I37" s="84">
+        <v>112</v>
+      </c>
+      <c r="J37" s="32">
+        <v>112</v>
+      </c>
+      <c r="K37" s="32">
+        <v>111.93</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25">
       <c r="A38" s="31"/>
-      <c r="B38" s="68"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="34">
+      <c r="F38" s="22">
         <v>112</v>
       </c>
-      <c r="K38" s="34">
-        <v>111.6</v>
+      <c r="G38" s="23">
+        <v>107.309</v>
+      </c>
+      <c r="H38" s="24">
+        <v>112</v>
+      </c>
+      <c r="I38" s="25">
+        <v>111.55</v>
+      </c>
+      <c r="J38" s="32">
+        <v>112</v>
+      </c>
+      <c r="K38" s="32">
+        <v>111.419</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25">
       <c r="A39" s="31"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="34">
+      <c r="F39" s="22">
         <v>112</v>
       </c>
-      <c r="K39" s="34">
+      <c r="G39" s="23">
+        <v>107.199</v>
+      </c>
+      <c r="H39" s="24">
         <v>112</v>
+      </c>
+      <c r="I39" s="25">
+        <v>111.37</v>
+      </c>
+      <c r="J39" s="32">
+        <v>112</v>
+      </c>
+      <c r="K39" s="32">
+        <v>111.33</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25">
@@ -3919,26 +4259,26 @@
     </row>
     <row r="41" spans="1:13" ht="14.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="74" t="s">
+      <c r="C41" s="57"/>
+      <c r="D41" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="75" t="s">
+      <c r="E41" s="57"/>
+      <c r="F41" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="63"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="64"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="64"/>
+      <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:13" ht="14.25">
       <c r="A42" s="11"/>
@@ -3983,15 +4323,23 @@
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
+      <c r="F43" s="22">
+        <v>71</v>
+      </c>
+      <c r="G43" s="23">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="H43" s="24">
+        <v>79</v>
+      </c>
+      <c r="I43" s="25">
+        <v>68.150000000000006</v>
+      </c>
       <c r="J43" s="26">
         <v>79</v>
       </c>
       <c r="K43" s="26">
-        <v>77.599999999999994</v>
+        <v>71.528999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25">
@@ -4004,17 +4352,25 @@
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
+      <c r="F44" s="22">
+        <v>75</v>
+      </c>
+      <c r="G44" s="23">
+        <v>67.08</v>
+      </c>
+      <c r="H44" s="24">
+        <v>79</v>
+      </c>
+      <c r="I44" s="25">
+        <v>71.400000000000006</v>
+      </c>
       <c r="J44" s="26">
         <v>79</v>
       </c>
       <c r="K44" s="26">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="M44" s="51"/>
+        <v>76.138999999999996</v>
+      </c>
+      <c r="M44" s="49"/>
     </row>
     <row r="45" spans="1:13" ht="14.25">
       <c r="A45" s="17"/>
@@ -4026,20 +4382,28 @@
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
+      <c r="F45" s="22">
+        <v>75</v>
+      </c>
+      <c r="G45" s="23">
+        <v>67.86</v>
+      </c>
+      <c r="H45" s="24">
+        <v>79</v>
+      </c>
+      <c r="I45" s="25">
+        <v>72.91</v>
+      </c>
       <c r="J45" s="26">
         <v>79</v>
       </c>
       <c r="K45" s="26">
-        <v>75.8</v>
+        <v>76.510000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -4047,78 +4411,110 @@
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
+      <c r="F46" s="22">
+        <v>79</v>
+      </c>
+      <c r="G46" s="23">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="H46" s="24">
+        <v>79</v>
+      </c>
+      <c r="I46" s="25">
+        <v>63.04</v>
+      </c>
       <c r="J46" s="26">
         <v>79</v>
       </c>
       <c r="K46" s="26">
-        <v>78.099999999999994</v>
+        <v>75.040000000000006</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25">
       <c r="A47" s="30"/>
-      <c r="B47" s="68"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
+      <c r="F47" s="22">
+        <v>79</v>
+      </c>
+      <c r="G47" s="23">
+        <v>77.62</v>
+      </c>
+      <c r="H47" s="24">
+        <v>79</v>
+      </c>
+      <c r="I47" s="25">
+        <v>65.599000000000004</v>
+      </c>
       <c r="J47" s="26">
         <v>79</v>
       </c>
       <c r="K47" s="26">
-        <v>75.88</v>
+        <v>75.448999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25">
       <c r="A48" s="30"/>
-      <c r="B48" s="68"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25"/>
+      <c r="F48" s="22">
+        <v>79</v>
+      </c>
+      <c r="G48" s="23">
+        <v>66.41</v>
+      </c>
+      <c r="H48" s="24">
+        <v>79</v>
+      </c>
+      <c r="I48" s="25">
+        <v>74.019000000000005</v>
+      </c>
       <c r="J48" s="26">
         <v>79</v>
       </c>
       <c r="K48" s="26">
-        <v>77.8</v>
+        <v>76.61</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.25">
       <c r="A49" s="30"/>
-      <c r="B49" s="68"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+      <c r="F49" s="22">
+        <v>36</v>
+      </c>
+      <c r="G49" s="23">
+        <v>31.959</v>
+      </c>
+      <c r="H49" s="24">
+        <v>79</v>
+      </c>
+      <c r="I49" s="25">
+        <v>76.448999999999998</v>
+      </c>
       <c r="J49" s="26">
         <v>79</v>
       </c>
       <c r="K49" s="26">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="M49" s="52"/>
+        <v>76.650000000000006</v>
+      </c>
+      <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:13" ht="14.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="28" t="s">
@@ -4126,53 +4522,77 @@
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25"/>
+      <c r="F50" s="22">
+        <v>79</v>
+      </c>
+      <c r="G50" s="23">
+        <v>75.698999999999998</v>
+      </c>
+      <c r="H50" s="24">
+        <v>79</v>
+      </c>
+      <c r="I50" s="25">
+        <v>76.680000000000007</v>
+      </c>
       <c r="J50" s="26">
         <v>79</v>
       </c>
       <c r="K50" s="26">
-        <v>74.900000000000006</v>
+        <v>75.599000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="68"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
+      <c r="F51" s="22">
+        <v>79</v>
+      </c>
+      <c r="G51" s="23">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="H51" s="24">
+        <v>79</v>
+      </c>
+      <c r="I51" s="25">
+        <v>76.180000000000007</v>
+      </c>
       <c r="J51" s="26">
         <v>79</v>
       </c>
       <c r="K51" s="26">
-        <v>76.2</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="59"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
+      <c r="F52" s="22">
+        <v>79</v>
+      </c>
+      <c r="G52" s="23">
+        <v>77.44</v>
+      </c>
+      <c r="H52" s="24">
+        <v>79</v>
+      </c>
+      <c r="I52" s="25">
+        <v>76.808999999999997</v>
+      </c>
       <c r="J52" s="26">
         <v>79</v>
       </c>
       <c r="K52" s="26">
-        <v>78.025000000000006</v>
+        <v>76.819999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.25">
@@ -4190,26 +4610,26 @@
     </row>
     <row r="54" spans="1:13" ht="14.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="74" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="75" t="s">
+      <c r="E54" s="57"/>
+      <c r="F54" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="63"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="64"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="K54" s="64"/>
+      <c r="K54" s="57"/>
     </row>
     <row r="55" spans="1:13" ht="14.25">
       <c r="A55" s="11"/>
@@ -4254,15 +4674,23 @@
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
+      <c r="F56" s="22">
+        <v>42</v>
+      </c>
+      <c r="G56" s="23">
+        <v>32.57</v>
+      </c>
+      <c r="H56" s="24">
+        <v>64</v>
+      </c>
+      <c r="I56" s="25">
+        <v>46.439</v>
+      </c>
       <c r="J56" s="26">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K56" s="26">
-        <v>90.55</v>
+        <v>62.27</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.25">
@@ -4277,13 +4705,17 @@
       <c r="E57" s="21"/>
       <c r="F57" s="22"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
+      <c r="H57" s="24">
+        <v>93</v>
+      </c>
+      <c r="I57" s="25">
+        <v>56.259</v>
+      </c>
       <c r="J57" s="26">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K57" s="26">
-        <v>89.85</v>
+        <v>75.778999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.25">
@@ -4298,18 +4730,22 @@
       <c r="E58" s="21"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
+      <c r="H58" s="24">
+        <v>93</v>
+      </c>
+      <c r="I58" s="25">
+        <v>66.73</v>
+      </c>
       <c r="J58" s="26">
         <v>98</v>
       </c>
       <c r="K58" s="26">
-        <v>89.25</v>
+        <v>84.778999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.25">
       <c r="A59" s="30"/>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="19" t="s">
@@ -4319,18 +4755,22 @@
       <c r="E59" s="21"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="84">
+      <c r="H59" s="24">
+        <v>85</v>
+      </c>
+      <c r="I59" s="25">
+        <v>55.29</v>
+      </c>
+      <c r="J59" s="54">
         <v>98</v>
       </c>
       <c r="K59" s="26">
-        <v>86.5</v>
+        <v>82.26</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.25">
       <c r="A60" s="30"/>
-      <c r="B60" s="68"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="19" t="s">
         <v>38</v>
       </c>
@@ -4338,18 +4778,23 @@
       <c r="E60" s="21"/>
       <c r="F60" s="22"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
+      <c r="H60" s="24">
+        <v>90</v>
+      </c>
+      <c r="I60" s="25">
+        <v>60.279000000000003</v>
+      </c>
       <c r="J60" s="26">
         <v>98</v>
       </c>
       <c r="K60" s="26">
-        <v>86.4</v>
-      </c>
+        <v>82.33</v>
+      </c>
+      <c r="M60" s="49"/>
     </row>
     <row r="61" spans="1:13" ht="14.25">
       <c r="A61" s="30"/>
-      <c r="B61" s="68"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="19" t="s">
         <v>28</v>
       </c>
@@ -4357,18 +4802,22 @@
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="84">
+      <c r="H61" s="86">
         <v>98</v>
       </c>
+      <c r="I61" s="25">
+        <v>69.088999999999999</v>
+      </c>
+      <c r="J61" s="54">
+        <v>98</v>
+      </c>
       <c r="K61" s="26">
-        <v>93.2</v>
+        <v>83.168999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.25">
       <c r="A62" s="30"/>
-      <c r="B62" s="68"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="17" t="s">
         <v>40</v>
       </c>
@@ -4376,18 +4825,22 @@
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="25"/>
+      <c r="H62" s="24">
+        <v>98</v>
+      </c>
+      <c r="I62" s="25">
+        <v>81.129000000000005</v>
+      </c>
       <c r="J62" s="26">
         <v>98</v>
       </c>
       <c r="K62" s="26">
-        <v>92.8</v>
+        <v>88.54</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.25">
       <c r="A63" s="31"/>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="28" t="s">
@@ -4397,18 +4850,23 @@
       <c r="E63" s="21"/>
       <c r="F63" s="22"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="25"/>
+      <c r="H63" s="87">
+        <v>90</v>
+      </c>
+      <c r="I63" s="25">
+        <v>65.97</v>
+      </c>
       <c r="J63" s="26">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K63" s="26">
-        <v>92.5</v>
-      </c>
+        <v>67.94</v>
+      </c>
+      <c r="L63" s="49"/>
     </row>
     <row r="64" spans="1:13" ht="14.25">
       <c r="A64" s="31"/>
-      <c r="B64" s="68"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="19" t="s">
         <v>50</v>
       </c>
@@ -4416,19 +4874,23 @@
       <c r="E64" s="21"/>
       <c r="F64" s="22"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="25"/>
+      <c r="H64" s="24">
+        <v>98</v>
+      </c>
+      <c r="I64" s="25">
+        <v>76.62</v>
+      </c>
       <c r="J64" s="26">
         <v>98</v>
       </c>
       <c r="K64" s="26">
-        <v>93.6</v>
-      </c>
-      <c r="M64" s="51"/>
+        <v>83.11</v>
+      </c>
+      <c r="M64" s="49"/>
     </row>
     <row r="65" spans="1:11" ht="14.25">
       <c r="A65" s="31"/>
-      <c r="B65" s="59"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="19" t="s">
         <v>52</v>
       </c>
@@ -4436,13 +4898,17 @@
       <c r="E65" s="21"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="25"/>
+      <c r="H65" s="24">
+        <v>98</v>
+      </c>
+      <c r="I65" s="25">
+        <v>81.558999999999997</v>
+      </c>
       <c r="J65" s="26">
         <v>98</v>
       </c>
       <c r="K65" s="26">
-        <v>93.05</v>
+        <v>87.948999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.25">
@@ -4460,26 +4926,26 @@
     </row>
     <row r="67" spans="1:11" ht="14.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="74" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="75" t="s">
+      <c r="E67" s="57"/>
+      <c r="F67" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G67" s="63"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I67" s="64"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K67" s="64"/>
+      <c r="K67" s="57"/>
     </row>
     <row r="68" spans="1:11" ht="14.25">
       <c r="A68" s="11"/>
@@ -4567,7 +5033,7 @@
     </row>
     <row r="72" spans="1:11" ht="14.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="19" t="s">
@@ -4584,7 +5050,7 @@
     </row>
     <row r="73" spans="1:11" ht="14.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="68"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="19" t="s">
         <v>38</v>
       </c>
@@ -4599,12 +5065,12 @@
     </row>
     <row r="74" spans="1:11" ht="14.25">
       <c r="A74" s="30"/>
-      <c r="B74" s="68"/>
+      <c r="B74" s="69"/>
       <c r="C74" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="20"/>
-      <c r="E74" s="35"/>
+      <c r="E74" s="33"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23"/>
       <c r="H74" s="24"/>
@@ -4614,7 +5080,7 @@
     </row>
     <row r="75" spans="1:11" ht="14.25">
       <c r="A75" s="30"/>
-      <c r="B75" s="68"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="17" t="s">
         <v>40</v>
       </c>
@@ -4629,7 +5095,7 @@
     </row>
     <row r="76" spans="1:11" ht="14.25">
       <c r="A76" s="31"/>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C76" s="28" t="s">
@@ -4646,7 +5112,7 @@
     </row>
     <row r="77" spans="1:11" ht="14.25">
       <c r="A77" s="31"/>
-      <c r="B77" s="68"/>
+      <c r="B77" s="69"/>
       <c r="C77" s="19" t="s">
         <v>50</v>
       </c>
@@ -4661,7 +5127,7 @@
     </row>
     <row r="78" spans="1:11" ht="14.25">
       <c r="A78" s="31"/>
-      <c r="B78" s="59"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="19" t="s">
         <v>52</v>
       </c>
@@ -4675,53 +5141,53 @@
       <c r="K78" s="26"/>
     </row>
     <row r="81" spans="1:15" ht="14.25">
-      <c r="D81" s="73" t="s">
+      <c r="D81" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="64"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="57"/>
     </row>
     <row r="82" spans="1:15" ht="12.75">
-      <c r="D82" s="70" t="s">
+      <c r="D82" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="64"/>
-      <c r="F82" s="70" t="s">
+      <c r="E82" s="57"/>
+      <c r="F82" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="64"/>
-      <c r="H82" s="70" t="s">
+      <c r="G82" s="57"/>
+      <c r="H82" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70" t="s">
+      <c r="I82" s="57"/>
+      <c r="J82" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K82" s="64"/>
-      <c r="L82" s="70" t="s">
+      <c r="K82" s="57"/>
+      <c r="L82" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="M82" s="64"/>
-      <c r="N82" s="70" t="s">
+      <c r="M82" s="57"/>
+      <c r="N82" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O82" s="64"/>
+      <c r="O82" s="57"/>
     </row>
     <row r="83" spans="1:15" ht="14.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="37" t="s">
+      <c r="B83" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="14" t="s">
@@ -4748,16 +5214,16 @@
       <c r="K83" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L83" s="38" t="s">
+      <c r="L83" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="38" t="s">
+      <c r="M83" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N83" s="38" t="s">
+      <c r="N83" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O83" s="38" t="s">
+      <c r="O83" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4769,40 +5235,40 @@
       <c r="C84" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="40" t="s">
+      <c r="D84" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F84" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G84" s="40" t="s">
+      <c r="G84" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J84" s="39" t="s">
+      <c r="J84" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K84" s="40" t="s">
+      <c r="K84" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="L84" s="39" t="s">
+      <c r="L84" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="M84" s="40" t="s">
+      <c r="M84" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="N84" s="39" t="s">
+      <c r="N84" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="O84" s="40" t="s">
+      <c r="O84" s="38" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4814,40 +5280,40 @@
       <c r="C85" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="40" t="s">
+      <c r="D85" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="39" t="s">
+      <c r="F85" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="J85" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K85" s="40" t="s">
+      <c r="K85" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="L85" s="39" t="s">
+      <c r="L85" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="M85" s="40" t="s">
+      <c r="M85" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="N85" s="39" t="s">
+      <c r="N85" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O85" s="40" t="s">
+      <c r="O85" s="38" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4859,432 +5325,432 @@
       <c r="C86" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="40" t="s">
+      <c r="D86" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G86" s="40" t="s">
+      <c r="G86" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="39" t="s">
+      <c r="H86" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I86" s="40" t="s">
+      <c r="I86" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J86" s="39" t="s">
+      <c r="J86" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K86" s="40" t="s">
+      <c r="K86" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="L86" s="39" t="s">
+      <c r="L86" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="M86" s="40" t="s">
+      <c r="M86" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="N86" s="39" t="s">
+      <c r="N86" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="O86" s="40" t="s">
+      <c r="O86" s="38" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="14.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="69" t="s">
+      <c r="B87" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D87" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="40" t="s">
+      <c r="D87" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="G87" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="J87" s="39" t="s">
+      <c r="J87" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K87" s="40" t="s">
+      <c r="K87" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="L87" s="39" t="s">
+      <c r="L87" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M87" s="41" t="s">
+      <c r="M87" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N87" s="41" t="s">
+      <c r="N87" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O87" s="41" t="s">
+      <c r="O87" s="39" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="14.25">
       <c r="A88" s="30"/>
-      <c r="B88" s="68"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="40" t="s">
+      <c r="D88" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F88" s="39" t="s">
+      <c r="F88" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G88" s="40" t="s">
+      <c r="G88" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="39" t="s">
+      <c r="H88" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I88" s="40" t="s">
+      <c r="I88" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="J88" s="39" t="s">
+      <c r="J88" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K88" s="40" t="s">
+      <c r="K88" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="L88" s="39" t="s">
+      <c r="L88" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M88" s="41" t="s">
+      <c r="M88" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N88" s="41" t="s">
+      <c r="N88" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="O88" s="41" t="s">
+      <c r="O88" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="14.25">
       <c r="A89" s="30"/>
-      <c r="B89" s="68"/>
+      <c r="B89" s="69"/>
       <c r="C89" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="39" t="s">
+      <c r="D89" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G89" s="40" t="s">
+      <c r="G89" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H89" s="39" t="s">
+      <c r="H89" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I89" s="40" t="s">
+      <c r="I89" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="J89" s="39" t="s">
+      <c r="J89" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K89" s="40" t="s">
+      <c r="K89" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="L89" s="39" t="s">
+      <c r="L89" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="M89" s="41" t="s">
+      <c r="M89" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="N89" s="41" t="s">
+      <c r="N89" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="O89" s="42" t="s">
+      <c r="O89" s="40" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="14.25">
       <c r="A90" s="30"/>
-      <c r="B90" s="68"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="39" t="s">
+      <c r="D90" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="39" t="s">
+      <c r="F90" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G90" s="40" t="s">
+      <c r="G90" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H90" s="39" t="s">
+      <c r="H90" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I90" s="40" t="s">
+      <c r="I90" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J90" s="39" t="s">
+      <c r="J90" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K90" s="40" t="s">
+      <c r="K90" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="L90" s="39" t="s">
+      <c r="L90" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="M90" s="41" t="s">
+      <c r="M90" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="N90" s="41" t="s">
+      <c r="N90" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="O90" s="41" t="s">
+      <c r="O90" s="39" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="14.25">
       <c r="A91" s="31"/>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="40" t="s">
+      <c r="D91" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="39" t="s">
+      <c r="F91" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G91" s="40" t="s">
+      <c r="G91" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H91" s="39" t="s">
+      <c r="H91" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I91" s="40" t="s">
+      <c r="I91" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="J91" s="39" t="s">
+      <c r="J91" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K91" s="40" t="s">
+      <c r="K91" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="L91" s="39" t="s">
+      <c r="L91" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M91" s="41" t="s">
+      <c r="M91" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="N91" s="41" t="s">
+      <c r="N91" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O91" s="41" t="s">
+      <c r="O91" s="39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="14.25">
       <c r="A92" s="31"/>
-      <c r="B92" s="68"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="40" t="s">
+      <c r="D92" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G92" s="40" t="s">
+      <c r="G92" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H92" s="39" t="s">
+      <c r="H92" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I92" s="40" t="s">
+      <c r="I92" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="J92" s="39" t="s">
+      <c r="J92" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="K92" s="40" t="s">
+      <c r="K92" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="L92" s="39" t="s">
+      <c r="L92" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M92" s="41" t="s">
+      <c r="M92" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N92" s="41" t="s">
+      <c r="N92" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="O92" s="41" t="s">
+      <c r="O92" s="39" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="14.25">
       <c r="A93" s="31"/>
-      <c r="B93" s="59"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="40" t="s">
+      <c r="D93" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F93" s="39" t="s">
+      <c r="F93" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G93" s="40" t="s">
+      <c r="G93" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I93" s="40" t="s">
+      <c r="I93" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J93" s="39" t="s">
+      <c r="J93" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="K93" s="40" t="s">
+      <c r="K93" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="L93" s="39" t="s">
+      <c r="L93" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="41" t="s">
+      <c r="M93" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="N93" s="41" t="s">
+      <c r="N93" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="O93" s="41" t="s">
+      <c r="O93" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="14.25">
-      <c r="D95" s="79" t="s">
+      <c r="D95" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="63"/>
-      <c r="K95" s="63"/>
-      <c r="L95" s="63"/>
-      <c r="M95" s="63"/>
-      <c r="N95" s="63"/>
-      <c r="O95" s="64"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="57"/>
     </row>
     <row r="96" spans="1:15" ht="12.75">
-      <c r="D96" s="70" t="s">
+      <c r="D96" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="70" t="s">
+      <c r="E96" s="57"/>
+      <c r="F96" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="70" t="s">
+      <c r="G96" s="57"/>
+      <c r="H96" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I96" s="64"/>
-      <c r="J96" s="70" t="s">
+      <c r="I96" s="57"/>
+      <c r="J96" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K96" s="64"/>
-      <c r="L96" s="70" t="s">
+      <c r="K96" s="57"/>
+      <c r="L96" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="M96" s="64"/>
-      <c r="N96" s="70" t="s">
+      <c r="M96" s="57"/>
+      <c r="N96" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O96" s="64"/>
+      <c r="O96" s="57"/>
     </row>
     <row r="97" spans="1:15" ht="14.25">
       <c r="A97" s="11"/>
-      <c r="B97" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="37" t="s">
+      <c r="B97" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="44" t="s">
+      <c r="E97" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="44" t="s">
+      <c r="G97" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="43" t="s">
+      <c r="H97" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="44" t="s">
+      <c r="I97" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J97" s="43" t="s">
+      <c r="J97" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K97" s="44" t="s">
+      <c r="K97" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L97" s="45" t="s">
+      <c r="L97" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="45" t="s">
+      <c r="M97" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N97" s="45" t="s">
+      <c r="N97" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="O97" s="45" t="s">
+      <c r="O97" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5296,40 +5762,40 @@
       <c r="C98" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="41" t="s">
+      <c r="D98" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F98" s="41" t="s">
+      <c r="F98" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G98" s="41" t="s">
+      <c r="G98" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H98" s="41" t="s">
+      <c r="H98" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I98" s="41" t="s">
+      <c r="I98" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J98" s="41" t="s">
+      <c r="J98" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K98" s="41" t="s">
+      <c r="K98" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L98" s="41" t="s">
+      <c r="L98" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="M98" s="41" t="s">
+      <c r="M98" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="N98" s="41" t="s">
+      <c r="N98" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="O98" s="41" t="s">
+      <c r="O98" s="39" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5341,40 +5807,40 @@
       <c r="C99" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="41" t="s">
+      <c r="D99" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H99" s="41" t="s">
+      <c r="H99" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I99" s="41" t="s">
+      <c r="I99" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J99" s="41" t="s">
+      <c r="J99" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K99" s="41" t="s">
+      <c r="K99" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="L99" s="41" t="s">
+      <c r="L99" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="M99" s="41" t="s">
+      <c r="M99" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="N99" s="41" t="s">
+      <c r="N99" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="O99" s="41" t="s">
+      <c r="O99" s="39" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5386,432 +5852,432 @@
       <c r="C100" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="41" t="s">
+      <c r="D100" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="G100" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H100" s="41" t="s">
+      <c r="H100" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I100" s="41" t="s">
+      <c r="I100" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J100" s="41" t="s">
+      <c r="J100" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K100" s="41" t="s">
+      <c r="K100" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="L100" s="41" t="s">
+      <c r="L100" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="M100" s="41" t="s">
+      <c r="M100" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="N100" s="41" t="s">
+      <c r="N100" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="O100" s="41" t="s">
+      <c r="O100" s="39" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="14.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="69" t="s">
+      <c r="B101" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="41" t="s">
+      <c r="D101" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G101" s="41" t="s">
+      <c r="G101" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H101" s="41" t="s">
+      <c r="H101" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I101" s="41" t="s">
+      <c r="I101" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="J101" s="41" t="s">
+      <c r="J101" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K101" s="41" t="s">
+      <c r="K101" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="L101" s="41" t="s">
+      <c r="L101" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M101" s="41" t="s">
+      <c r="M101" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N101" s="41" t="s">
+      <c r="N101" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O101" s="41" t="s">
+      <c r="O101" s="39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="14.25">
       <c r="A102" s="30"/>
-      <c r="B102" s="68"/>
+      <c r="B102" s="69"/>
       <c r="C102" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="41" t="s">
+      <c r="D102" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F102" s="46" t="s">
+      <c r="F102" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G102" s="46" t="s">
+      <c r="G102" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H102" s="41" t="s">
+      <c r="H102" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I102" s="41" t="s">
+      <c r="I102" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="J102" s="41" t="s">
+      <c r="J102" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K102" s="41" t="s">
+      <c r="K102" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="L102" s="41" t="s">
+      <c r="L102" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="M102" s="41" t="s">
+      <c r="M102" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N102" s="41" t="s">
+      <c r="N102" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="O102" s="41" t="s">
+      <c r="O102" s="39" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="14.25">
       <c r="A103" s="30"/>
-      <c r="B103" s="68"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="46" t="s">
+      <c r="D103" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G103" s="46" t="s">
+      <c r="G103" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="41" t="s">
+      <c r="H103" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I103" s="41" t="s">
+      <c r="I103" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J103" s="41" t="s">
+      <c r="J103" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K103" s="41" t="s">
+      <c r="K103" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="L103" s="41" t="s">
+      <c r="L103" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="M103" s="41" t="s">
+      <c r="M103" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="N103" s="41" t="s">
+      <c r="N103" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="O103" s="41" t="s">
+      <c r="O103" s="39" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="14.25">
       <c r="A104" s="30"/>
-      <c r="B104" s="68"/>
+      <c r="B104" s="69"/>
       <c r="C104" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F104" s="46" t="s">
+      <c r="F104" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G104" s="46" t="s">
+      <c r="G104" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="41" t="s">
+      <c r="H104" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I104" s="41" t="s">
+      <c r="I104" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J104" s="41" t="s">
+      <c r="J104" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K104" s="41" t="s">
+      <c r="K104" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="L104" s="41" t="s">
+      <c r="L104" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="M104" s="41" t="s">
+      <c r="M104" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="N104" s="41" t="s">
+      <c r="N104" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O104" s="41" t="s">
+      <c r="O104" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="14.25">
       <c r="A105" s="31"/>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H105" s="41" t="s">
+      <c r="H105" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="I105" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J105" s="41" t="s">
+      <c r="J105" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K105" s="41" t="s">
+      <c r="K105" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="L105" s="41" t="s">
+      <c r="L105" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M105" s="41" t="s">
+      <c r="M105" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="N105" s="41" t="s">
+      <c r="N105" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="O105" s="41" t="s">
+      <c r="O105" s="39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="14.25">
       <c r="A106" s="31"/>
-      <c r="B106" s="68"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D106" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="41" t="s">
+      <c r="D106" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G106" s="46" t="s">
+      <c r="G106" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H106" s="41" t="s">
+      <c r="H106" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I106" s="41" t="s">
+      <c r="I106" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J106" s="41" t="s">
+      <c r="J106" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K106" s="41" t="s">
+      <c r="K106" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="L106" s="41" t="s">
+      <c r="L106" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M106" s="41" t="s">
+      <c r="M106" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="N106" s="41" t="s">
+      <c r="N106" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O106" s="41" t="s">
+      <c r="O106" s="39" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="14.25">
       <c r="A107" s="31"/>
-      <c r="B107" s="59"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="41" t="s">
+      <c r="D107" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="46" t="s">
+      <c r="F107" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G107" s="46" t="s">
+      <c r="G107" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H107" s="41" t="s">
+      <c r="H107" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I107" s="41" t="s">
+      <c r="I107" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J107" s="41" t="s">
+      <c r="J107" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="K107" s="41" t="s">
+      <c r="K107" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L107" s="41" t="s">
+      <c r="L107" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M107" s="41" t="s">
+      <c r="M107" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N107" s="41" t="s">
+      <c r="N107" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O107" s="41" t="s">
+      <c r="O107" s="39" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="14.25">
-      <c r="D109" s="72" t="s">
+      <c r="D109" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="63"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="63"/>
-      <c r="K109" s="63"/>
-      <c r="L109" s="63"/>
-      <c r="M109" s="63"/>
-      <c r="N109" s="63"/>
-      <c r="O109" s="64"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="57"/>
     </row>
     <row r="110" spans="1:15" ht="12.75">
-      <c r="D110" s="70" t="s">
+      <c r="D110" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="64"/>
-      <c r="F110" s="70" t="s">
+      <c r="E110" s="57"/>
+      <c r="F110" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="64"/>
-      <c r="H110" s="70" t="s">
+      <c r="G110" s="57"/>
+      <c r="H110" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I110" s="64"/>
-      <c r="J110" s="70" t="s">
+      <c r="I110" s="57"/>
+      <c r="J110" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K110" s="64"/>
-      <c r="L110" s="70" t="s">
+      <c r="K110" s="57"/>
+      <c r="L110" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="M110" s="64"/>
-      <c r="N110" s="70" t="s">
+      <c r="M110" s="57"/>
+      <c r="N110" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O110" s="64"/>
+      <c r="O110" s="57"/>
     </row>
     <row r="111" spans="1:15" ht="14.25">
       <c r="A111" s="11"/>
-      <c r="B111" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="37" t="s">
+      <c r="B111" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="48" t="s">
+      <c r="E111" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="47" t="s">
+      <c r="F111" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G111" s="48" t="s">
+      <c r="G111" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H111" s="47" t="s">
+      <c r="H111" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I111" s="48" t="s">
+      <c r="I111" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J111" s="47" t="s">
+      <c r="J111" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K111" s="48" t="s">
+      <c r="K111" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L111" s="47" t="s">
+      <c r="L111" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="M111" s="48" t="s">
+      <c r="M111" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N111" s="47" t="s">
+      <c r="N111" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O111" s="48" t="s">
+      <c r="O111" s="46" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5823,40 +6289,40 @@
       <c r="C112" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" s="40" t="s">
+      <c r="D112" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F112" s="39" t="s">
+      <c r="F112" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H112" s="39" t="s">
+      <c r="H112" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I112" s="40" t="s">
+      <c r="I112" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="J112" s="39" t="s">
+      <c r="J112" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K112" s="40" t="s">
+      <c r="K112" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="L112" s="39" t="s">
+      <c r="L112" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M112" s="40" t="s">
+      <c r="M112" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N112" s="39" t="s">
+      <c r="N112" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O112" s="40" t="s">
+      <c r="O112" s="38" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5868,40 +6334,40 @@
       <c r="C113" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" s="40" t="s">
+      <c r="D113" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F113" s="39" t="s">
+      <c r="F113" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G113" s="40" t="s">
+      <c r="G113" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H113" s="39" t="s">
+      <c r="H113" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I113" s="40" t="s">
+      <c r="I113" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J113" s="39" t="s">
+      <c r="J113" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K113" s="40" t="s">
+      <c r="K113" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="L113" s="39" t="s">
+      <c r="L113" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M113" s="40" t="s">
+      <c r="M113" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N113" s="39" t="s">
+      <c r="N113" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O113" s="40" t="s">
+      <c r="O113" s="38" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5913,432 +6379,432 @@
       <c r="C114" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="40" t="s">
+      <c r="D114" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F114" s="39" t="s">
+      <c r="F114" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G114" s="40" t="s">
+      <c r="G114" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H114" s="39" t="s">
+      <c r="H114" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I114" s="40" t="s">
+      <c r="I114" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="J114" s="39" t="s">
+      <c r="J114" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K114" s="40" t="s">
+      <c r="K114" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="L114" s="39" t="s">
+      <c r="L114" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M114" s="40" t="s">
+      <c r="M114" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N114" s="39" t="s">
+      <c r="N114" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O114" s="40" t="s">
+      <c r="O114" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="14.25">
       <c r="A115" s="30"/>
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D115" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" s="40" t="s">
+      <c r="D115" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F115" s="39" t="s">
+      <c r="F115" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G115" s="40" t="s">
+      <c r="G115" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H115" s="39" t="s">
+      <c r="H115" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I115" s="40" t="s">
+      <c r="I115" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J115" s="39" t="s">
+      <c r="J115" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K115" s="40" t="s">
+      <c r="K115" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="L115" s="39" t="s">
+      <c r="L115" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M115" s="40" t="s">
+      <c r="M115" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N115" s="39" t="s">
+      <c r="N115" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O115" s="40" t="s">
+      <c r="O115" s="38" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="14.25">
       <c r="A116" s="30"/>
-      <c r="B116" s="68"/>
+      <c r="B116" s="69"/>
       <c r="C116" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" s="40" t="s">
+      <c r="D116" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G116" s="40" t="s">
+      <c r="G116" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H116" s="39" t="s">
+      <c r="H116" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I116" s="40" t="s">
+      <c r="I116" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J116" s="39" t="s">
+      <c r="J116" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K116" s="40" t="s">
+      <c r="K116" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="L116" s="39" t="s">
+      <c r="L116" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M116" s="40" t="s">
+      <c r="M116" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N116" s="39" t="s">
+      <c r="N116" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O116" s="40" t="s">
+      <c r="O116" s="38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="14.25">
       <c r="A117" s="30"/>
-      <c r="B117" s="68"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D117" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="40" t="s">
+      <c r="D117" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G117" s="40" t="s">
+      <c r="G117" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H117" s="39" t="s">
+      <c r="H117" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I117" s="40" t="s">
+      <c r="I117" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="J117" s="39" t="s">
+      <c r="J117" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K117" s="40" t="s">
+      <c r="K117" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="L117" s="39" t="s">
+      <c r="L117" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M117" s="40" t="s">
+      <c r="M117" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N117" s="39" t="s">
+      <c r="N117" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="O117" s="40" t="s">
+      <c r="O117" s="38" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="14.25">
       <c r="A118" s="30"/>
-      <c r="B118" s="68"/>
+      <c r="B118" s="69"/>
       <c r="C118" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D118" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="40" t="s">
+      <c r="D118" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F118" s="39" t="s">
+      <c r="F118" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G118" s="40" t="s">
+      <c r="G118" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H118" s="39" t="s">
+      <c r="H118" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I118" s="40" t="s">
+      <c r="I118" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J118" s="39" t="s">
+      <c r="J118" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K118" s="40" t="s">
+      <c r="K118" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="L118" s="39" t="s">
+      <c r="L118" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M118" s="40" t="s">
+      <c r="M118" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N118" s="39" t="s">
+      <c r="N118" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="O118" s="40" t="s">
+      <c r="O118" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="14.25">
       <c r="A119" s="31"/>
-      <c r="B119" s="67" t="s">
+      <c r="B119" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="40" t="s">
+      <c r="D119" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G119" s="40" t="s">
+      <c r="G119" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H119" s="39" t="s">
+      <c r="H119" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I119" s="40" t="s">
+      <c r="I119" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="J119" s="39" t="s">
+      <c r="J119" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K119" s="40" t="s">
+      <c r="K119" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="L119" s="39" t="s">
+      <c r="L119" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M119" s="40" t="s">
+      <c r="M119" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="N119" s="39" t="s">
+      <c r="N119" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="O119" s="40" t="s">
+      <c r="O119" s="38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="14.25">
       <c r="A120" s="31"/>
-      <c r="B120" s="68"/>
+      <c r="B120" s="69"/>
       <c r="C120" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D120" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="40" t="s">
+      <c r="D120" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F120" s="39" t="s">
+      <c r="F120" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G120" s="40" t="s">
+      <c r="G120" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H120" s="39" t="s">
+      <c r="H120" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="40" t="s">
+      <c r="I120" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="J120" s="39" t="s">
+      <c r="J120" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K120" s="40" t="s">
+      <c r="K120" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="L120" s="39" t="s">
+      <c r="L120" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M120" s="40" t="s">
+      <c r="M120" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N120" s="39" t="s">
+      <c r="N120" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="O120" s="40" t="s">
+      <c r="O120" s="38" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="14.25">
       <c r="A121" s="31"/>
-      <c r="B121" s="59"/>
+      <c r="B121" s="63"/>
       <c r="C121" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D121" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="40" t="s">
+      <c r="D121" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G121" s="40" t="s">
+      <c r="G121" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H121" s="39" t="s">
+      <c r="H121" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I121" s="40" t="s">
+      <c r="I121" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J121" s="39" t="s">
+      <c r="J121" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K121" s="40" t="s">
+      <c r="K121" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="L121" s="39" t="s">
+      <c r="L121" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M121" s="40" t="s">
+      <c r="M121" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="N121" s="39" t="s">
+      <c r="N121" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="O121" s="40" t="s">
+      <c r="O121" s="38" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="14.25">
-      <c r="D123" s="71" t="s">
+      <c r="D123" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="E123" s="63"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="63"/>
-      <c r="I123" s="63"/>
-      <c r="J123" s="63"/>
-      <c r="K123" s="63"/>
-      <c r="L123" s="63"/>
-      <c r="M123" s="63"/>
-      <c r="N123" s="63"/>
-      <c r="O123" s="64"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="56"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="57"/>
     </row>
     <row r="124" spans="1:15" ht="12.75">
-      <c r="D124" s="70" t="s">
+      <c r="D124" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="64"/>
-      <c r="F124" s="70" t="s">
+      <c r="E124" s="57"/>
+      <c r="F124" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G124" s="64"/>
-      <c r="H124" s="70" t="s">
+      <c r="G124" s="57"/>
+      <c r="H124" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I124" s="64"/>
-      <c r="J124" s="70" t="s">
+      <c r="I124" s="57"/>
+      <c r="J124" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K124" s="64"/>
-      <c r="L124" s="70" t="s">
+      <c r="K124" s="57"/>
+      <c r="L124" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="M124" s="64"/>
-      <c r="N124" s="70" t="s">
+      <c r="M124" s="57"/>
+      <c r="N124" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O124" s="64"/>
+      <c r="O124" s="57"/>
     </row>
     <row r="125" spans="1:15" ht="14.25">
       <c r="A125" s="11"/>
-      <c r="B125" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="37" t="s">
+      <c r="B125" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="49" t="s">
+      <c r="D125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="E125" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="49" t="s">
+      <c r="F125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G125" s="50" t="s">
+      <c r="G125" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="49" t="s">
+      <c r="H125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I125" s="50" t="s">
+      <c r="I125" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J125" s="49" t="s">
+      <c r="J125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K125" s="50" t="s">
+      <c r="K125" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L125" s="49" t="s">
+      <c r="L125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="M125" s="50" t="s">
+      <c r="M125" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="N125" s="49" t="s">
+      <c r="N125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O125" s="50" t="s">
+      <c r="O125" s="48" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6350,40 +6816,40 @@
       <c r="C126" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="41" t="s">
+      <c r="D126" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F126" s="41" t="s">
+      <c r="F126" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G126" s="41" t="s">
+      <c r="G126" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H126" s="41" t="s">
+      <c r="H126" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I126" s="41" t="s">
+      <c r="I126" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J126" s="40" t="s">
+      <c r="J126" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K126" s="40" t="s">
+      <c r="K126" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="L126" s="41" t="s">
+      <c r="L126" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M126" s="41" t="s">
+      <c r="M126" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N126" s="41" t="s">
+      <c r="N126" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O126" s="41" t="s">
+      <c r="O126" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6395,40 +6861,40 @@
       <c r="C127" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="41" t="s">
+      <c r="D127" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F127" s="41" t="s">
+      <c r="F127" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G127" s="41" t="s">
+      <c r="G127" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H127" s="41" t="s">
+      <c r="H127" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I127" s="41" t="s">
+      <c r="I127" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J127" s="40" t="s">
+      <c r="J127" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K127" s="40" t="s">
+      <c r="K127" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="L127" s="41" t="s">
+      <c r="L127" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M127" s="41" t="s">
+      <c r="M127" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N127" s="41" t="s">
+      <c r="N127" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O127" s="41" t="s">
+      <c r="O127" s="39" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6440,419 +6906,350 @@
       <c r="C128" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D128" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="41" t="s">
+      <c r="D128" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F128" s="41" t="s">
+      <c r="F128" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G128" s="41" t="s">
+      <c r="G128" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H128" s="41" t="s">
+      <c r="H128" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I128" s="41" t="s">
+      <c r="I128" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="J128" s="40" t="s">
+      <c r="J128" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K128" s="40" t="s">
+      <c r="K128" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="L128" s="41" t="s">
+      <c r="L128" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M128" s="41" t="s">
+      <c r="M128" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N128" s="41" t="s">
+      <c r="N128" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="O128" s="41" t="s">
+      <c r="O128" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="14.25">
       <c r="A129" s="30"/>
-      <c r="B129" s="69" t="s">
+      <c r="B129" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="41" t="s">
+      <c r="D129" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="41" t="s">
+      <c r="F129" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G129" s="41" t="s">
+      <c r="G129" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H129" s="41" t="s">
+      <c r="H129" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I129" s="41" t="s">
+      <c r="I129" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J129" s="40" t="s">
+      <c r="J129" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K129" s="40" t="s">
+      <c r="K129" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="L129" s="41" t="s">
+      <c r="L129" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M129" s="41" t="s">
+      <c r="M129" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N129" s="41" t="s">
+      <c r="N129" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="O129" s="41" t="s">
+      <c r="O129" s="39" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="14.25">
       <c r="A130" s="30"/>
-      <c r="B130" s="68"/>
+      <c r="B130" s="69"/>
       <c r="C130" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D130" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="41" t="s">
+      <c r="D130" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F130" s="41" t="s">
+      <c r="F130" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G130" s="41" t="s">
+      <c r="G130" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="41" t="s">
+      <c r="H130" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I130" s="41" t="s">
+      <c r="I130" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J130" s="40" t="s">
+      <c r="J130" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="K130" s="40" t="s">
+      <c r="K130" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="L130" s="41" t="s">
+      <c r="L130" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M130" s="41" t="s">
+      <c r="M130" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N130" s="41" t="s">
+      <c r="N130" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="O130" s="41" t="s">
+      <c r="O130" s="39" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="14.25">
       <c r="A131" s="30"/>
-      <c r="B131" s="68"/>
+      <c r="B131" s="69"/>
       <c r="C131" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="41" t="s">
+      <c r="D131" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F131" s="41" t="s">
+      <c r="F131" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G131" s="41" t="s">
+      <c r="G131" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H131" s="41" t="s">
+      <c r="H131" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I131" s="41" t="s">
+      <c r="I131" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J131" s="40" t="s">
+      <c r="J131" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K131" s="40" t="s">
+      <c r="K131" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="L131" s="41" t="s">
+      <c r="L131" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M131" s="41" t="s">
+      <c r="M131" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N131" s="41" t="s">
+      <c r="N131" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="O131" s="41" t="s">
+      <c r="O131" s="39" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="14.25">
       <c r="A132" s="30"/>
-      <c r="B132" s="68"/>
+      <c r="B132" s="69"/>
       <c r="C132" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" s="41" t="s">
+      <c r="D132" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F132" s="41" t="s">
+      <c r="F132" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G132" s="41" t="s">
+      <c r="G132" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="41" t="s">
+      <c r="H132" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I132" s="41" t="s">
+      <c r="I132" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J132" s="40" t="s">
+      <c r="J132" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K132" s="40" t="s">
+      <c r="K132" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="L132" s="41" t="s">
+      <c r="L132" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M132" s="41" t="s">
+      <c r="M132" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N132" s="41" t="s">
+      <c r="N132" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="O132" s="41" t="s">
+      <c r="O132" s="39" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="14.25">
       <c r="A133" s="31"/>
-      <c r="B133" s="67" t="s">
+      <c r="B133" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C133" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="41" t="s">
+      <c r="D133" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F133" s="41" t="s">
+      <c r="F133" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G133" s="41" t="s">
+      <c r="G133" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H133" s="41" t="s">
+      <c r="H133" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="I133" s="41" t="s">
+      <c r="I133" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J133" s="40" t="s">
+      <c r="J133" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K133" s="40" t="s">
+      <c r="K133" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="L133" s="41" t="s">
+      <c r="L133" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M133" s="41" t="s">
+      <c r="M133" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N133" s="41" t="s">
+      <c r="N133" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="O133" s="41" t="s">
+      <c r="O133" s="39" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="14.25">
       <c r="A134" s="31"/>
-      <c r="B134" s="68"/>
+      <c r="B134" s="69"/>
       <c r="C134" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D134" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" s="41" t="s">
+      <c r="D134" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F134" s="41" t="s">
+      <c r="F134" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G134" s="41" t="s">
+      <c r="G134" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H134" s="41" t="s">
+      <c r="H134" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I134" s="41" t="s">
+      <c r="I134" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J134" s="40" t="s">
+      <c r="J134" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="K134" s="40" t="s">
+      <c r="K134" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="L134" s="41" t="s">
+      <c r="L134" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M134" s="41" t="s">
+      <c r="M134" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N134" s="41" t="s">
+      <c r="N134" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="O134" s="41" t="s">
+      <c r="O134" s="39" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="14.25">
       <c r="A135" s="31"/>
-      <c r="B135" s="59"/>
+      <c r="B135" s="63"/>
       <c r="C135" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D135" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="41" t="s">
+      <c r="D135" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F135" s="41" t="s">
+      <c r="F135" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G135" s="41" t="s">
+      <c r="G135" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H135" s="41" t="s">
+      <c r="H135" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I135" s="41" t="s">
+      <c r="I135" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J135" s="40" t="s">
+      <c r="J135" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K135" s="40" t="s">
+      <c r="K135" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="L135" s="41" t="s">
+      <c r="L135" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M135" s="41" t="s">
+      <c r="M135" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N135" s="41" t="s">
+      <c r="N135" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="O135" s="41" t="s">
+      <c r="O135" s="39" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="D95:O95"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="D81:O81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="D109:O109"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
     <mergeCell ref="B133:B135"/>
     <mergeCell ref="B129:B132"/>
     <mergeCell ref="F110:G110"/>
@@ -6863,7 +7260,77 @@
     <mergeCell ref="N110:O110"/>
     <mergeCell ref="B119:B121"/>
     <mergeCell ref="B115:B118"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="D109:O109"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="D95:O95"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="D81:O81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B76:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>